--- a/Baza_danych.xlsx
+++ b/Baza_danych.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,27 +501,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>795 000 zł</t>
+          <t>610 000 zł</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10352 zł/m²</t>
+          <t>10854 zł/m²</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>76,80 m²</t>
+          <t>56,20 m²</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,69 +531,69 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pomorskie</t>
+          <t>Lubelskie</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Lublin</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Lublin</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Lublin</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Osowa</t>
+          <t>Rury</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Antygony</t>
+          <t>Konrada Wallenroda</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/osowa-3-pokoje-2-lazienki-balkon-ID4x9zL</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-2-pokojowe-rury-po-remoncie-ID4xE5n</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>680 000 zł</t>
+          <t>239 000 zł</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10510 zł/m²</t>
+          <t>9192 zł/m²</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>64,70 m²</t>
+          <t>26 m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -601,66 +601,56 @@
           <t>wtórny</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pomorskie</t>
+          <t>Śląskie</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Gliwice</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Gliwice</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Gliwice</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Osowa</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Bliźniąt</t>
+          <t>Zatorze</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/4-pokoje-spokojna-okolica-osowa-ID4xkZS</t>
+          <t>https://www.otodom.pl/pl/oferta/przytulna-kawalerka-z-klimatyzacja-idealna-do-zamieszkania-ID4v2eg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>669 000 zł</t>
+          <t>465 430 zł</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12616 zł/m²</t>
+          <t>10900 zł/m²</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>53,03 m²</t>
+          <t>42,70 m²</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -673,143 +663,144 @@
           <t>wtórny</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2012</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>wielka płyta</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pomorskie</t>
+          <t>Śląskie</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Osowa</t>
+          <t>Wełnowiec-Józefowiec</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Marsa</t>
+          <t>Tomasza Kotlarza</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/53m2-2-pokoje-narozne-sloneczne-2-balkony-garaz-osowa-gdansk-ID4xJFK</t>
+          <t>https://www.otodom.pl/pl/oferta/odkryj-stylowe-wnetrze-tuz-obok-parku-slaskiego-i-silesii-ID4xEYt</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>793 684 zł</t>
+          <t>610 000 zł</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9200 zł/m²</t>
+          <t>10854 zł/m²</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>86,27 m²</t>
+          <t>56,20 m²</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>pierwotny</t>
+          <t>wtórny</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025</t>
-        </is>
-      </c>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pomorskie</t>
+          <t>Lubelskie</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Lublin</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Lublin</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Lublin</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Osowa</t>
+          <t>Rury</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Planetarna</t>
+          <t>Konrada Wallenroda</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/komfortowe-86-m2-4-pokoje-wyjatkowa-oferta-ID4xIUe</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-2-pokojowe-rury-po-remoncie-ID4xE5n</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>610 000 zł</t>
+          <t>239 000 zł</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10854 zł/m²</t>
+          <t>9192 zł/m²</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>56,20 m²</t>
+          <t>26 m²</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -817,81 +808,77 @@
           <t>wtórny</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Lubelskie</t>
+          <t>Śląskie</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Lublin</t>
+          <t>Gliwice</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Lublin</t>
+          <t>Gliwice</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Lublin</t>
+          <t>Gliwice</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Rury</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Konrada Wallenroda</t>
-        </is>
-      </c>
+          <t>Zatorze</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-2-pokojowe-rury-po-remoncie-ID4xE5n</t>
+          <t>https://www.otodom.pl/pl/oferta/przytulna-kawalerka-z-klimatyzacja-idealna-do-zamieszkania-ID4v2eg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>239 000 zł</t>
+          <t>465 430 zł</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9192 zł/m²</t>
+          <t>10900 zł/m²</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26 m²</t>
+          <t>42,70 m²</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>wtórny</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>wielka płyta</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Śląskie</t>
@@ -899,99 +886,30 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Gliwice</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Gliwice</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Gliwice</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Zatorze</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>Wełnowiec-Józefowiec</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tomasza Kotlarza</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>https://www.otodom.pl/pl/oferta/przytulna-kawalerka-z-klimatyzacja-idealna-do-zamieszkania-ID4v2eg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>465 430 zł</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10900 zł/m²</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>42,70 m²</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>wtórny</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>wielka płyta</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Śląskie</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Katowice</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Katowice</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Katowice</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Wełnowiec-Józefowiec</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Tomasza Kotlarza</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
         <is>
           <t>https://www.otodom.pl/pl/oferta/odkryj-stylowe-wnetrze-tuz-obok-parku-slaskiego-i-silesii-ID4xEYt</t>
         </is>
